--- a/data/trans_orig/P78C3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C3_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{564F729A-1E26-4167-AC24-A5A628A9C189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BA06048-2329-44DF-8F31-7AA0827FCF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{67643DEB-BB47-4198-BE99-807E4AB1B48C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C84B82E5-786B-4E96-BF30-33297A712A25}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="88">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos de cuotas de compras aplazadas en 2023 (Tasa respuesta: 0,48%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -89,7 +89,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>23,51%</t>
+    <t>19,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,190 +101,202 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -699,8 +711,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699C0CAE-5230-445B-84D1-24A6C4A066EA}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37AF076-F653-45D8-B5CA-6F2ED7DB519E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -835,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1954</v>
+        <v>1762</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -850,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>1954</v>
+        <v>1762</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -871,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>6355</v>
+        <v>7055</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>14</v>
@@ -901,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>6355</v>
+        <v>7055</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>21</v>
@@ -922,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>6355</v>
+        <v>7055</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>16</v>
@@ -937,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>1954</v>
+        <v>1762</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>16</v>
@@ -952,7 +964,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>8309</v>
+        <v>8817</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>16</v>
@@ -990,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>975</v>
+        <v>922</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>14</v>
@@ -1005,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>975</v>
+        <v>922</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>23</v>
@@ -1026,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>3041</v>
+        <v>3096</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>14</v>
@@ -1056,7 +1068,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>3040</v>
+        <v>3095</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
@@ -1077,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>3041</v>
+        <v>3096</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>16</v>
@@ -1092,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>975</v>
+        <v>922</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>16</v>
@@ -1107,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>4015</v>
+        <v>4017</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>16</v>
@@ -1130,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>26</v>
@@ -1145,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>798</v>
+        <v>767</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>28</v>
@@ -1160,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>2004</v>
+        <v>1953</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>29</v>
@@ -1181,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>4003</v>
+        <v>3941</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>31</v>
@@ -1196,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>1562</v>
+        <v>1446</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>33</v>
@@ -1211,7 +1223,7 @@
         <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>5565</v>
+        <v>5387</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>34</v>
@@ -1232,7 +1244,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>5209</v>
+        <v>5128</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>16</v>
@@ -1247,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>2360</v>
+        <v>2213</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>16</v>
@@ -1262,7 +1274,7 @@
         <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>7569</v>
+        <v>7340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>16</v>
@@ -1300,7 +1312,7 @@
         <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>5394</v>
+        <v>4965</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>37</v>
@@ -1315,7 +1327,7 @@
         <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>5394</v>
+        <v>4965</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>40</v>
@@ -1336,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>1178</v>
+        <v>1141</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -1351,7 +1363,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>2811</v>
+        <v>2633</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>43</v>
@@ -1366,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>3989</v>
+        <v>3774</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>46</v>
@@ -1387,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>1178</v>
+        <v>1141</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>16</v>
@@ -1402,7 +1414,7 @@
         <v>12</v>
       </c>
       <c r="I15" s="7">
-        <v>8205</v>
+        <v>7598</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>16</v>
@@ -1417,7 +1429,7 @@
         <v>14</v>
       </c>
       <c r="N15" s="7">
-        <v>9383</v>
+        <v>8739</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>16</v>
@@ -1440,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2132</v>
+        <v>1902</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>50</v>
@@ -1455,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>696</v>
+        <v>659</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>51</v>
@@ -1470,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>2828</v>
+        <v>2562</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>53</v>
@@ -1491,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1935</v>
+        <v>1843</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>56</v>
@@ -1506,7 +1518,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>2828</v>
+        <v>2539</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>57</v>
@@ -1521,7 +1533,7 @@
         <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>4764</v>
+        <v>4382</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>59</v>
@@ -1542,7 +1554,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>4067</v>
+        <v>3745</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>16</v>
@@ -1557,7 +1569,7 @@
         <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>3524</v>
+        <v>3198</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>16</v>
@@ -1572,7 +1584,7 @@
         <v>10</v>
       </c>
       <c r="N18" s="7">
-        <v>7592</v>
+        <v>6944</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>16</v>
@@ -1592,49 +1604,47 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>1683</v>
+        <v>614</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="K19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="7">
         <v>1</v>
       </c>
-      <c r="I19" s="7">
-        <v>625</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="N19" s="7">
+        <v>614</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2307</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,49 +1653,47 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>991</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="7"/>
+      <c r="J20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>991</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,10 +1702,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>2674</v>
+        <v>614</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>16</v>
@@ -1709,25 +1717,23 @@
         <v>16</v>
       </c>
       <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="7">
         <v>1</v>
       </c>
-      <c r="I21" s="7">
-        <v>625</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="7">
-        <v>4</v>
-      </c>
       <c r="N21" s="7">
-        <v>3298</v>
+        <v>614</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>16</v>
@@ -1741,55 +1747,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>5022</v>
+        <v>864</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H22" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>10440</v>
+        <v>565</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="M22" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>15462</v>
+        <v>1429</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1798,49 +1804,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>17502</v>
+        <v>941</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="H23" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>7203</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="M23" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>24705</v>
+        <v>941</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,63 +1855,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1805</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>565</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="7">
+        <v>3</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2370</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4568</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="7">
+        <v>13</v>
+      </c>
+      <c r="I25" s="7">
+        <v>9639</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="7">
         <v>18</v>
       </c>
-      <c r="D24" s="7">
-        <v>22524</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="N25" s="7">
+        <v>14207</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>13</v>
+      </c>
+      <c r="D26" s="7">
+        <v>18016</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="7">
+        <v>11</v>
+      </c>
+      <c r="I26" s="7">
+        <v>6618</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M26" s="7">
         <v>24</v>
       </c>
-      <c r="I24" s="7">
-        <v>17643</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="N26" s="7">
+        <v>24634</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>18</v>
+      </c>
+      <c r="D27" s="7">
+        <v>22584</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="7">
+        <v>24</v>
+      </c>
+      <c r="I27" s="7">
+        <v>16257</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="7">
         <v>42</v>
       </c>
-      <c r="N24" s="7">
-        <v>40167</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>83</v>
+      <c r="N27" s="7">
+        <v>38841</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
